--- a/app/WK6.xlsx
+++ b/app/WK6.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruce\OneDrive\文件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HexHw06F\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43766E13-5BC5-4AB0-8F2D-96226AD2B740}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B733F66D-0EB6-443C-9225-FB6D7B2BD799}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5351E871-326F-4D9F-841D-FCD97A90B1B8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5351E871-326F-4D9F-841D-FCD97A90B1B8}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -471,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A926F9-F9AB-4098-9E1C-2467B0B78778}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -588,7 +588,7 @@
         <v>0.25</v>
       </c>
       <c r="F13" t="str">
-        <f>XRA*E13 &amp; "px"</f>
+        <f t="shared" ref="F13:F21" si="0">XRA*E13 &amp; "px"</f>
         <v>4px</v>
       </c>
     </row>
@@ -600,7 +600,7 @@
         <v>0.5</v>
       </c>
       <c r="F14" t="str">
-        <f>XRA*E14 &amp; "px"</f>
+        <f t="shared" si="0"/>
         <v>8px</v>
       </c>
     </row>
@@ -612,7 +612,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="str">
-        <f>XRA*E15 &amp; "px"</f>
+        <f t="shared" si="0"/>
         <v>16px</v>
       </c>
     </row>
@@ -624,7 +624,7 @@
         <v>1.5</v>
       </c>
       <c r="F16" t="str">
-        <f>XRA*E16 &amp; "px"</f>
+        <f t="shared" si="0"/>
         <v>24px</v>
       </c>
     </row>
@@ -636,7 +636,7 @@
         <v>2</v>
       </c>
       <c r="F17" t="str">
-        <f>XRA*E17 &amp; "px"</f>
+        <f t="shared" si="0"/>
         <v>32px</v>
       </c>
     </row>
@@ -648,7 +648,7 @@
         <v>2.5</v>
       </c>
       <c r="F18" t="str">
-        <f>XRA*E18 &amp; "px"</f>
+        <f t="shared" si="0"/>
         <v>40px</v>
       </c>
     </row>
@@ -660,7 +660,7 @@
         <v>3</v>
       </c>
       <c r="F19" t="str">
-        <f>XRA*E19 &amp; "px"</f>
+        <f t="shared" si="0"/>
         <v>48px</v>
       </c>
     </row>
@@ -672,7 +672,7 @@
         <v>3.5</v>
       </c>
       <c r="F20" t="str">
-        <f>XRA*E20 &amp; "px"</f>
+        <f t="shared" si="0"/>
         <v>56px</v>
       </c>
     </row>
@@ -684,7 +684,7 @@
         <v>4</v>
       </c>
       <c r="F21" t="str">
-        <f>XRA*E21 &amp; "px"</f>
+        <f t="shared" si="0"/>
         <v>64px</v>
       </c>
     </row>

--- a/app/WK6.xlsx
+++ b/app/WK6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HexHw06F\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B733F66D-0EB6-443C-9225-FB6D7B2BD799}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D22D2C2-6A06-4E3F-9D47-16557EE6FD6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5351E871-326F-4D9F-841D-FCD97A90B1B8}"/>
   </bookViews>
@@ -471,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A926F9-F9AB-4098-9E1C-2467B0B78778}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:E21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -588,7 +588,7 @@
         <v>0.25</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" ref="F13:F21" si="0">XRA*E13 &amp; "px"</f>
+        <f t="shared" ref="F13:F22" si="0">XRA*E13 &amp; "px"</f>
         <v>4px</v>
       </c>
     </row>
@@ -686,6 +686,18 @@
       <c r="F21" t="str">
         <f t="shared" si="0"/>
         <v>64px</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>4.5</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>72px</v>
       </c>
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.4">
